--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblMapper_UserToLDAPUser.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblMapper_UserToLDAPUser.xlsx
@@ -337,42 +337,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -8029,11 +7994,11 @@
           </cell>
         </row>
         <row r="589">
-          <cell r="B589" t="str">
-            <v/>
+          <cell r="B589">
+            <v>4000000000586</v>
           </cell>
           <cell r="C589" t="str">
-            <v/>
+            <v>(LDAP) budi.sandika</v>
           </cell>
         </row>
       </sheetData>
@@ -14637,6 +14602,17 @@
             <v>47000000000602</v>
           </cell>
         </row>
+        <row r="606">
+          <cell r="B606" t="str">
+            <v>budi.sandika</v>
+          </cell>
+          <cell r="C606" t="str">
+            <v>User_BudiSandika</v>
+          </cell>
+          <cell r="E606">
+            <v>47000000000603</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="4">
@@ -19453,6 +19429,14 @@
           </cell>
           <cell r="D605" t="str">
             <v>User_RahmataNovanisa</v>
+          </cell>
+        </row>
+        <row r="606">
+          <cell r="C606" t="str">
+            <v>budi.sandika</v>
+          </cell>
+          <cell r="D606" t="str">
+            <v>User_BudiSandika</v>
           </cell>
         </row>
       </sheetData>
@@ -19753,8 +19737,8 @@
   </sheetPr>
   <dimension ref="B1:H600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
-      <selection activeCell="J595" sqref="J595"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35065,24 +35049,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>EXACT(G3, G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>EXACT(G4, G5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G589">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>EXACT(G5, G6)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D4:D5" evalError="1"/>
+    <ignoredError sqref="D4:D5 E4:E5" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
